--- a/Report/3PL Report/3PL/JPN3PLReport.xlsx
+++ b/Report/3PL Report/3PL/JPN3PLReport.xlsx
@@ -755,7 +755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +765,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,6 +819,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1185,43 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>162</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1215,43 +1229,43 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>59</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1259,43 +1273,43 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1303,43 +1317,43 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
-        <v>5100</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8046</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="B5" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4755</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1347,87 +1361,87 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2">
-        <v>1801</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2582</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="B7" s="4">
+        <v>2201</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1103</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1435,43 +1449,43 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
-        <v>350</v>
-      </c>
-      <c r="C8" s="2">
-        <v>612</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="B8" s="4">
+        <v>885</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1479,43 +1493,43 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="4">
         <v>118</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1523,43 +1537,43 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
         <v>1</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>500</v>
       </c>
     </row>
@@ -1567,43 +1581,43 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1611,43 +1625,43 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>552</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>456</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1655,43 +1669,43 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
-        <v>8008</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10518</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="B13" s="4">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5308</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1699,43 +1713,43 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
-        <v>10534</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12369</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>12511</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1743,43 +1757,43 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="B15" s="4">
+        <v>115</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1787,43 +1801,43 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>470</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="B16" s="4">
+        <v>405</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1831,43 +1845,43 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>3136</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>801</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>746</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1875,43 +1889,43 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1919,43 +1933,43 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1963,43 +1977,43 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>300</v>
       </c>
-      <c r="C20" s="2">
-        <v>125</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="C20" s="5">
+        <v>263</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2007,43 +2021,43 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2051,43 +2065,43 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2095,43 +2109,43 @@
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>1620</v>
       </c>
-      <c r="G23" s="2">
-        <v>915</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="H23" s="4">
+        <v>360</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2139,43 +2153,43 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2183,43 +2197,43 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2227,43 +2241,43 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>664</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>717</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2271,43 +2285,43 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1785</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7682</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2315,43 +2329,43 @@
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2359,43 +2373,43 @@
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>8440</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7659</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2403,43 +2417,43 @@
       <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2">
-        <v>1196</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="B30" s="4">
+        <v>272</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2447,41 +2461,43 @@
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1141</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1776</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2489,43 +2505,43 @@
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
         <v>1500</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
         <v>1600</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="4">
         <v>400</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Report/3PL Report/3PL/JPN3PLReport.xlsx
+++ b/Report/3PL Report/3PL/JPN3PLReport.xlsx
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C5" s="5">
-        <v>4755</v>
+        <v>2693</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>2201</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>885</v>
+        <v>712</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
         <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>5308</v>
+        <v>1882</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5">
-        <v>12511</v>
+        <v>5685</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="D17" s="4">
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>31</v>
       </c>
       <c r="B20" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>717</v>
+        <v>188</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="5">
-        <v>7682</v>
+        <v>7067</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>7659</v>
+        <v>7577</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="4">
-        <v>272</v>
+        <v>1201</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="5">
-        <v>1776</v>
+        <v>1441</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>

--- a/Report/3PL Report/3PL/JPN3PLReport.xlsx
+++ b/Report/3PL Report/3PL/JPN3PLReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
   <si>
     <t>&lt;30 days</t>
   </si>
@@ -1125,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N229"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>1502</v>
+        <v>10502</v>
       </c>
       <c r="C5" s="5">
-        <v>2693</v>
+        <v>1156</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>23</v>
+        <v>8708</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>712</v>
+        <v>1524</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="4">
-        <v>39</v>
+        <v>8613</v>
       </c>
       <c r="C13" s="5">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>6</v>
+        <v>13857</v>
       </c>
       <c r="C14" s="5">
-        <v>5685</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4">
-        <v>405</v>
+        <v>562</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5">
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1887,13 +1887,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4">
-        <v>50</v>
+        <v>531</v>
       </c>
       <c r="C18" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
       </c>
       <c r="C23" s="5">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="5">
-        <v>7067</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>7577</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -2415,16 +2415,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>6627</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
       </c>
       <c r="C31" s="5">
-        <v>1441</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -2503,28 +2503,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="5">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>7465</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -2547,183 +2547,183 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2911</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1140</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="4">
+        <v>400</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -2811,51 +2811,51 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -3251,51 +3251,51 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -3383,95 +3383,95 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -3559,51 +3559,51 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1">
+        <v>64</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -3691,95 +3691,95 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
+        <v>68</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -3823,139 +3823,139 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1">
+        <v>70</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1">
+        <v>71</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
+        <v>72</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -4175,51 +4175,51 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
+        <v>78</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -4395,51 +4395,51 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3">
-        <v>0</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -4527,95 +4527,95 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1">
+        <v>86</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3">
-        <v>0</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -4703,139 +4703,139 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0</v>
-      </c>
-      <c r="N82" s="1">
+        <v>90</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
-      </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
+        <v>92</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J85" s="1">
         <v>0</v>
@@ -4879,51 +4879,51 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1">
-        <v>0</v>
-      </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0</v>
-      </c>
-      <c r="N86" s="1">
+        <v>94</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
@@ -5011,95 +5011,95 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>34</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+        <v>97</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
+        <v>98</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -5143,51 +5143,51 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1">
-        <v>0</v>
-      </c>
-      <c r="K92" s="1">
-        <v>0</v>
-      </c>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1">
+        <v>100</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>34</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -6111,51 +6111,51 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0</v>
-      </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>0</v>
-      </c>
-      <c r="K114" s="3">
-        <v>0</v>
-      </c>
-      <c r="L114" s="3">
-        <v>0</v>
-      </c>
-      <c r="M114" s="3">
-        <v>0</v>
-      </c>
-      <c r="N114" s="3">
+        <v>122</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -6243,51 +6243,51 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1">
-        <v>0</v>
-      </c>
-      <c r="K117" s="1">
-        <v>0</v>
-      </c>
-      <c r="L117" s="1">
-        <v>0</v>
-      </c>
-      <c r="M117" s="1">
-        <v>0</v>
-      </c>
-      <c r="N117" s="1">
+        <v>125</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0</v>
+      </c>
+      <c r="N117" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -6458,56 +6458,56 @@
         <v>0</v>
       </c>
       <c r="N121" s="1">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0</v>
-      </c>
-      <c r="C122" s="3">
-        <v>0</v>
-      </c>
-      <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="3">
-        <v>0</v>
-      </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="I122" s="3">
-        <v>0</v>
-      </c>
-      <c r="J122" s="3">
-        <v>0</v>
-      </c>
-      <c r="K122" s="3">
-        <v>0</v>
-      </c>
-      <c r="L122" s="3">
-        <v>0</v>
-      </c>
-      <c r="M122" s="3">
-        <v>0</v>
-      </c>
-      <c r="N122" s="3">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -6590,56 +6590,56 @@
         <v>0</v>
       </c>
       <c r="N124" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1">
-        <v>0</v>
-      </c>
-      <c r="K125" s="1">
-        <v>0</v>
-      </c>
-      <c r="L125" s="1">
-        <v>0</v>
-      </c>
-      <c r="M125" s="1">
-        <v>0</v>
-      </c>
-      <c r="N125" s="1">
+        <v>133</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+      <c r="L125" s="3">
+        <v>0</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0</v>
+      </c>
+      <c r="N125" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -9675,271 +9675,271 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>206</v>
-      </c>
-      <c r="B195" s="3">
-        <v>0</v>
-      </c>
-      <c r="C195" s="3">
-        <v>0</v>
-      </c>
-      <c r="D195" s="3">
-        <v>0</v>
-      </c>
-      <c r="E195" s="3">
-        <v>0</v>
-      </c>
-      <c r="F195" s="3">
-        <v>0</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="3">
-        <v>0</v>
-      </c>
-      <c r="I195" s="3">
-        <v>0</v>
-      </c>
-      <c r="J195" s="3">
-        <v>0</v>
-      </c>
-      <c r="K195" s="3">
-        <v>0</v>
-      </c>
-      <c r="L195" s="3">
-        <v>0</v>
-      </c>
-      <c r="M195" s="3">
-        <v>0</v>
-      </c>
-      <c r="N195" s="3">
+        <v>203</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0</v>
+      </c>
+      <c r="L195" s="1">
+        <v>0</v>
+      </c>
+      <c r="M195" s="1">
+        <v>0</v>
+      </c>
+      <c r="N195" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>207</v>
-      </c>
-      <c r="B196" s="3">
-        <v>0</v>
-      </c>
-      <c r="C196" s="3">
-        <v>0</v>
-      </c>
-      <c r="D196" s="3">
-        <v>0</v>
-      </c>
-      <c r="E196" s="3">
-        <v>0</v>
-      </c>
-      <c r="F196" s="3">
-        <v>0</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="3">
-        <v>0</v>
-      </c>
-      <c r="I196" s="3">
-        <v>0</v>
-      </c>
-      <c r="J196" s="3">
-        <v>0</v>
-      </c>
-      <c r="K196" s="3">
-        <v>0</v>
-      </c>
-      <c r="L196" s="3">
-        <v>0</v>
-      </c>
-      <c r="M196" s="3">
-        <v>0</v>
-      </c>
-      <c r="N196" s="3">
+        <v>204</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0</v>
+      </c>
+      <c r="L196" s="1">
+        <v>0</v>
+      </c>
+      <c r="M196" s="1">
+        <v>0</v>
+      </c>
+      <c r="N196" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>208</v>
-      </c>
-      <c r="B197" s="3">
-        <v>0</v>
-      </c>
-      <c r="C197" s="3">
-        <v>0</v>
-      </c>
-      <c r="D197" s="3">
-        <v>0</v>
-      </c>
-      <c r="E197" s="3">
-        <v>0</v>
-      </c>
-      <c r="F197" s="3">
-        <v>0</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="3">
-        <v>0</v>
-      </c>
-      <c r="I197" s="3">
-        <v>0</v>
-      </c>
-      <c r="J197" s="3">
-        <v>0</v>
-      </c>
-      <c r="K197" s="3">
-        <v>0</v>
-      </c>
-      <c r="L197" s="3">
-        <v>0</v>
-      </c>
-      <c r="M197" s="3">
-        <v>0</v>
-      </c>
-      <c r="N197" s="3">
+        <v>205</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0</v>
+      </c>
+      <c r="L197" s="1">
+        <v>0</v>
+      </c>
+      <c r="M197" s="1">
+        <v>0</v>
+      </c>
+      <c r="N197" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>209</v>
-      </c>
-      <c r="B198" s="1">
-        <v>0</v>
-      </c>
-      <c r="C198" s="1">
-        <v>0</v>
-      </c>
-      <c r="D198" s="1">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1">
-        <v>0</v>
-      </c>
-      <c r="F198" s="1">
-        <v>0</v>
-      </c>
-      <c r="G198" s="1">
-        <v>0</v>
-      </c>
-      <c r="H198" s="1">
-        <v>0</v>
-      </c>
-      <c r="I198" s="1">
-        <v>0</v>
-      </c>
-      <c r="J198" s="1">
-        <v>0</v>
-      </c>
-      <c r="K198" s="1">
-        <v>0</v>
-      </c>
-      <c r="L198" s="1">
-        <v>0</v>
-      </c>
-      <c r="M198" s="1">
-        <v>0</v>
-      </c>
-      <c r="N198" s="1">
+        <v>206</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K198" s="3">
+        <v>0</v>
+      </c>
+      <c r="L198" s="3">
+        <v>0</v>
+      </c>
+      <c r="M198" s="3">
+        <v>0</v>
+      </c>
+      <c r="N198" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>210</v>
-      </c>
-      <c r="B199" s="1">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1">
-        <v>0</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0</v>
-      </c>
-      <c r="E199" s="1">
-        <v>0</v>
-      </c>
-      <c r="F199" s="1">
-        <v>0</v>
-      </c>
-      <c r="G199" s="1">
-        <v>0</v>
-      </c>
-      <c r="H199" s="1">
-        <v>0</v>
-      </c>
-      <c r="I199" s="1">
-        <v>0</v>
-      </c>
-      <c r="J199" s="1">
-        <v>0</v>
-      </c>
-      <c r="K199" s="1">
-        <v>0</v>
-      </c>
-      <c r="L199" s="1">
-        <v>0</v>
-      </c>
-      <c r="M199" s="1">
-        <v>0</v>
-      </c>
-      <c r="N199" s="1">
+        <v>207</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0</v>
+      </c>
+      <c r="J199" s="3">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199" s="3">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>211</v>
-      </c>
-      <c r="B200" s="1">
-        <v>0</v>
-      </c>
-      <c r="C200" s="1">
-        <v>0</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0</v>
-      </c>
-      <c r="E200" s="1">
-        <v>0</v>
-      </c>
-      <c r="F200" s="1">
-        <v>0</v>
-      </c>
-      <c r="G200" s="1">
-        <v>0</v>
-      </c>
-      <c r="H200" s="1">
-        <v>0</v>
-      </c>
-      <c r="I200" s="1">
-        <v>0</v>
-      </c>
-      <c r="J200" s="1">
-        <v>0</v>
-      </c>
-      <c r="K200" s="1">
-        <v>0</v>
-      </c>
-      <c r="L200" s="1">
-        <v>0</v>
-      </c>
-      <c r="M200" s="1">
-        <v>0</v>
-      </c>
-      <c r="N200" s="1">
+        <v>208</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J200" s="3">
+        <v>0</v>
+      </c>
+      <c r="K200" s="3">
+        <v>0</v>
+      </c>
+      <c r="L200" s="3">
+        <v>0</v>
+      </c>
+      <c r="M200" s="3">
+        <v>0</v>
+      </c>
+      <c r="N200" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B204" s="1">
         <v>0</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B205" s="1">
         <v>0</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -10203,51 +10203,51 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>218</v>
-      </c>
-      <c r="B207" s="3">
-        <v>0</v>
-      </c>
-      <c r="C207" s="3">
-        <v>0</v>
-      </c>
-      <c r="D207" s="3">
-        <v>0</v>
-      </c>
-      <c r="E207" s="3">
-        <v>0</v>
-      </c>
-      <c r="F207" s="3">
-        <v>0</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="3">
-        <v>0</v>
-      </c>
-      <c r="I207" s="3">
-        <v>0</v>
-      </c>
-      <c r="J207" s="3">
-        <v>0</v>
-      </c>
-      <c r="K207" s="3">
-        <v>0</v>
-      </c>
-      <c r="L207" s="3">
-        <v>0</v>
-      </c>
-      <c r="M207" s="3">
-        <v>0</v>
-      </c>
-      <c r="N207" s="3">
+        <v>215</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0</v>
+      </c>
+      <c r="L207" s="1">
+        <v>0</v>
+      </c>
+      <c r="M207" s="1">
+        <v>0</v>
+      </c>
+      <c r="N207" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B209" s="1">
         <v>0</v>
@@ -10335,51 +10335,51 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>221</v>
-      </c>
-      <c r="B210" s="1">
-        <v>0</v>
-      </c>
-      <c r="C210" s="1">
-        <v>0</v>
-      </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-      <c r="F210" s="1">
-        <v>0</v>
-      </c>
-      <c r="G210" s="1">
-        <v>0</v>
-      </c>
-      <c r="H210" s="1">
-        <v>0</v>
-      </c>
-      <c r="I210" s="1">
-        <v>0</v>
-      </c>
-      <c r="J210" s="1">
-        <v>0</v>
-      </c>
-      <c r="K210" s="1">
-        <v>0</v>
-      </c>
-      <c r="L210" s="1">
-        <v>0</v>
-      </c>
-      <c r="M210" s="1">
-        <v>0</v>
-      </c>
-      <c r="N210" s="1">
+        <v>218</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3">
+        <v>0</v>
+      </c>
+      <c r="M210" s="3">
+        <v>0</v>
+      </c>
+      <c r="N210" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B213" s="1">
         <v>0</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B214" s="1">
         <v>0</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B215" s="1">
         <v>0</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B216" s="1">
         <v>0</v>
@@ -10643,7 +10643,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B217" s="1">
         <v>0</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B218" s="1">
         <v>0</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B219" s="1">
         <v>0</v>
@@ -10775,95 +10775,95 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>231</v>
-      </c>
-      <c r="B220" s="3">
-        <v>0</v>
-      </c>
-      <c r="C220" s="3">
-        <v>0</v>
-      </c>
-      <c r="D220" s="3">
-        <v>0</v>
-      </c>
-      <c r="E220" s="3">
-        <v>0</v>
-      </c>
-      <c r="F220" s="3">
-        <v>0</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="3">
-        <v>0</v>
-      </c>
-      <c r="I220" s="3">
-        <v>0</v>
-      </c>
-      <c r="J220" s="3">
-        <v>0</v>
-      </c>
-      <c r="K220" s="3">
-        <v>0</v>
-      </c>
-      <c r="L220" s="3">
-        <v>0</v>
-      </c>
-      <c r="M220" s="3">
-        <v>0</v>
-      </c>
-      <c r="N220" s="3">
+        <v>228</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0</v>
+      </c>
+      <c r="K220" s="1">
+        <v>0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>0</v>
+      </c>
+      <c r="M220" s="1">
+        <v>0</v>
+      </c>
+      <c r="N220" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>232</v>
-      </c>
-      <c r="B221" s="3">
-        <v>0</v>
-      </c>
-      <c r="C221" s="3">
-        <v>0</v>
-      </c>
-      <c r="D221" s="3">
-        <v>0</v>
-      </c>
-      <c r="E221" s="3">
-        <v>0</v>
-      </c>
-      <c r="F221" s="3">
-        <v>0</v>
-      </c>
-      <c r="G221" s="3">
-        <v>0</v>
-      </c>
-      <c r="H221" s="3">
-        <v>0</v>
-      </c>
-      <c r="I221" s="3">
-        <v>0</v>
-      </c>
-      <c r="J221" s="3">
-        <v>0</v>
-      </c>
-      <c r="K221" s="3">
-        <v>0</v>
-      </c>
-      <c r="L221" s="3">
-        <v>0</v>
-      </c>
-      <c r="M221" s="3">
-        <v>0</v>
-      </c>
-      <c r="N221" s="3">
+        <v>229</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>0</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0</v>
+      </c>
+      <c r="L221" s="1">
+        <v>0</v>
+      </c>
+      <c r="M221" s="1">
+        <v>0</v>
+      </c>
+      <c r="N221" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B222" s="1">
         <v>0</v>
@@ -10907,95 +10907,95 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>234</v>
-      </c>
-      <c r="B223" s="1">
-        <v>0</v>
-      </c>
-      <c r="C223" s="1">
-        <v>0</v>
-      </c>
-      <c r="D223" s="1">
-        <v>0</v>
-      </c>
-      <c r="E223" s="1">
-        <v>0</v>
-      </c>
-      <c r="F223" s="1">
-        <v>0</v>
-      </c>
-      <c r="G223" s="1">
-        <v>0</v>
-      </c>
-      <c r="H223" s="1">
-        <v>0</v>
-      </c>
-      <c r="I223" s="1">
-        <v>0</v>
-      </c>
-      <c r="J223" s="1">
-        <v>0</v>
-      </c>
-      <c r="K223" s="1">
-        <v>0</v>
-      </c>
-      <c r="L223" s="1">
-        <v>0</v>
-      </c>
-      <c r="M223" s="1">
-        <v>0</v>
-      </c>
-      <c r="N223" s="1">
+        <v>231</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="3">
+        <v>0</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>0</v>
+      </c>
+      <c r="M223" s="3">
+        <v>0</v>
+      </c>
+      <c r="N223" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>235</v>
-      </c>
-      <c r="B224" s="1">
-        <v>0</v>
-      </c>
-      <c r="C224" s="1">
-        <v>0</v>
-      </c>
-      <c r="D224" s="1">
-        <v>0</v>
-      </c>
-      <c r="E224" s="1">
-        <v>0</v>
-      </c>
-      <c r="F224" s="1">
-        <v>0</v>
-      </c>
-      <c r="G224" s="1">
-        <v>0</v>
-      </c>
-      <c r="H224" s="1">
-        <v>0</v>
-      </c>
-      <c r="I224" s="1">
-        <v>0</v>
-      </c>
-      <c r="J224" s="1">
-        <v>0</v>
-      </c>
-      <c r="K224" s="1">
-        <v>0</v>
-      </c>
-      <c r="L224" s="1">
-        <v>0</v>
-      </c>
-      <c r="M224" s="1">
-        <v>0</v>
-      </c>
-      <c r="N224" s="1">
+        <v>232</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>0</v>
+      </c>
+      <c r="M224" s="3">
+        <v>0</v>
+      </c>
+      <c r="N224" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B225" s="1">
         <v>0</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B226" s="1">
         <v>0</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B227" s="1">
         <v>0</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B228" s="1">
         <v>0</v>
@@ -11171,45 +11171,177 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="K229" s="1">
+        <v>0</v>
+      </c>
+      <c r="L229" s="1">
+        <v>0</v>
+      </c>
+      <c r="M229" s="1">
+        <v>0</v>
+      </c>
+      <c r="N229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0</v>
+      </c>
+      <c r="K230" s="1">
+        <v>0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>0</v>
+      </c>
+      <c r="M230" s="1">
+        <v>0</v>
+      </c>
+      <c r="N230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>0</v>
+      </c>
+      <c r="K231" s="1">
+        <v>0</v>
+      </c>
+      <c r="L231" s="1">
+        <v>0</v>
+      </c>
+      <c r="M231" s="1">
+        <v>0</v>
+      </c>
+      <c r="N231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>240</v>
       </c>
-      <c r="B229" s="1">
-        <v>0</v>
-      </c>
-      <c r="C229" s="1">
-        <v>0</v>
-      </c>
-      <c r="D229" s="1">
-        <v>0</v>
-      </c>
-      <c r="E229" s="1">
-        <v>0</v>
-      </c>
-      <c r="F229" s="1">
-        <v>0</v>
-      </c>
-      <c r="G229" s="1">
-        <v>0</v>
-      </c>
-      <c r="H229" s="1">
-        <v>0</v>
-      </c>
-      <c r="I229" s="1">
-        <v>0</v>
-      </c>
-      <c r="J229" s="1">
-        <v>0</v>
-      </c>
-      <c r="K229" s="1">
-        <v>0</v>
-      </c>
-      <c r="L229" s="1">
-        <v>0</v>
-      </c>
-      <c r="M229" s="1">
-        <v>0</v>
-      </c>
-      <c r="N229" s="1">
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>0</v>
+      </c>
+      <c r="K232" s="1">
+        <v>0</v>
+      </c>
+      <c r="L232" s="1">
+        <v>0</v>
+      </c>
+      <c r="M232" s="1">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1">
         <v>0</v>
       </c>
     </row>
